--- a/study3/presentation_for_paper/study3_gpt_prompt.xlsx
+++ b/study3/presentation_for_paper/study3_gpt_prompt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study3/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{E86E45A1-150B-4A38-A74E-CDB9E7D3561B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52E84E56-2893-4A9F-A500-40FD7A8A3B7B}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="8_{E86E45A1-150B-4A38-A74E-CDB9E7D3561B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02E6D01D-11C9-43AA-94D5-8D75A116F3CF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C437011E-7A4B-457C-A980-6E73C2AE5194}"/>
   </bookViews>
@@ -37,58 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>&lt;Task Description&gt;</t>
-  </si>
-  <si>
-    <t>1. Create Personalized iPhone Ads: Develop iPhone ads tailored to the following "Blended Personality Profile" using your imagination and by interpreting the Big 5 personality traits scores listed below. Recognize that recipients are more likely to engage with ads that resonate with their personality traits. Each ad must be between 40 to 60 words.</t>
-  </si>
-  <si>
-    <t>2. Blended Personality Profile Explanation: Provide a brief explanation of the "Blended Personality Profile," describing the blended personality characteristics based on their Big 5 personality traits scores. This explanation will help understand the type of individuals these tailored ads and conversations are targeting.</t>
-  </si>
-  <si>
-    <t>3. Single Personality Profile Explanation: Provide a brief explanation for each of the numbered "Single Personality Profiles," describing the personality characteristics based on their Big 5 personality traits scores. This explanation will help understand the different types of personalities compared to the more complex blended personality in Task 2.</t>
-  </si>
-  <si>
-    <t>&lt;Guidelines&gt;</t>
-  </si>
-  <si>
-    <t>- Refer to the provided "Major Characteristics of Low/High on Each Trait" for insights.</t>
-  </si>
-  <si>
-    <t>&lt;Blended Personality Profile&gt;</t>
-  </si>
-  <si>
-    <t>- Extraversion: 3.16 (out of 5)</t>
-  </si>
-  <si>
-    <t>- Agreeableness: 4.00 (out of 5)</t>
-  </si>
-  <si>
-    <t>- Conscientiousness: 4.00 (out of 5)</t>
-  </si>
-  <si>
-    <t>- Open-Mindedness: 3.83 (out of 5)</t>
-  </si>
-  <si>
-    <t>&lt;Single Personality Profile&gt;</t>
-  </si>
-  <si>
-    <t>1. Extraversion: 5 (out of 5)</t>
-  </si>
-  <si>
-    <t>2. Agreeableness: 5 (out of 5)</t>
-  </si>
-  <si>
-    <t>3. Conscientiousness: 5 (out of 5)</t>
-  </si>
-  <si>
-    <t>4. Open-Mindedness: 5 (out of 5)</t>
-  </si>
-  <si>
-    <t>&lt;Major Characteristics of Low/High on Each Trait&gt;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Low Extraversion: Reserved, Quiet, Shy, Introverted, Passive, Withdrawn, Solitary</t>
   </si>
@@ -114,11 +63,84 @@
     <t>High Openness: Creative, Imaginative, Curious, Original, Artistic, Open-minded, Intellectual</t>
   </si>
   <si>
-    <t>- Understand that recipients are more likely to engage with ads or conversational tones that reflect their personality traits.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>- Use the scores provided for each personality type to infer the major characteristics.</t>
+    <t>1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create Personalized iPhone Ads: Develop iPhone ads tailored to the following "Blended Personality Profile" using your imagination and by interpreting the Big 5 personality traits scores listed below. Recognize that recipients are more likely to engage with ads that resonate with their personality traits. Each ad must be between 40 to 60 words.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blended Personality Profile Explanation: Provide a brief explanation of the "Blended Personality Profile," describing the blended personality characteristics based on their Big 5 personality traits scores. This explanation will help understand the type of individuals these tailored ads and conversations are targeting.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use the scores provided for each personality type to infer the major characteristics.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Refer to the provided "Major Characteristics of Low/High on Each Trait" for insights.</t>
+  </si>
+  <si>
+    <t>Extraversion: 3.16 (out of 5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Agreeableness: 4.00 (out of 5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Conscientiousness: 4.00 (out of 5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Open-Mindedness: 3.83 (out of 5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Understand that recipients are more likely to engage with ads or conversational tones that reflect their personality traits.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Guidelines</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blended Personality Profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Major Characteristics of Low/High on Each Trait</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -145,8 +167,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,20 +187,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -203,22 +296,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>201083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>97367</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A06049-604C-81C1-4944-4E2FC1CC77CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C73F7D-7320-2748-F635-E16B61A9DF95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -241,18 +334,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="184150" y="107950"/>
-          <a:ext cx="7397750" cy="7924800"/>
+          <a:off x="232833" y="2762250"/>
+          <a:ext cx="7082367" cy="5501216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -267,6 +355,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,156 +678,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390D2A0E-DF40-428C-92BE-0474F62DCFE5}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:A37"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="A1:J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="97" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="2.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1"/>
+    <col min="5" max="7" width="2.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:9" ht="3.5" customHeight="1"/>
+    <row r="2" spans="2:9">
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="2:9" ht="45" customHeight="1">
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:9" ht="4" customHeight="1"/>
+    <row r="5" spans="2:9" ht="42" customHeight="1">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="2:9" ht="5" customHeight="1">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="2:9" ht="6" customHeight="1">
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="43.5">
-      <c r="A2" s="1" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="43.5">
-      <c r="A4" s="1" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="43.5">
-      <c r="A6" s="1" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" ht="8.5" customHeight="1">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" ht="3" customHeight="1"/>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D26:I26"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3:C6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -743,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B263F17-8363-4A5A-8755-C4C517E64E4D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N39" sqref="M1:N39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
